--- a/correlation/data/macro_ewma_cor.xlsx
+++ b/correlation/data/macro_ewma_cor.xlsx
@@ -444,25 +444,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2836259222417185</v>
+        <v>0.280138199243315</v>
       </c>
       <c r="C2">
-        <v>0.9418907742525693</v>
+        <v>0.8810464487533755</v>
       </c>
       <c r="D2">
-        <v>-0.7228386011297286</v>
+        <v>0.177798723416985</v>
       </c>
       <c r="E2">
-        <v>0.95643040731109</v>
+        <v>0.8716900796640861</v>
       </c>
       <c r="F2">
-        <v>0.9155161907781705</v>
+        <v>0.8753926804779407</v>
       </c>
       <c r="G2">
-        <v>0.4584281067326669</v>
+        <v>0.4013505291380477</v>
       </c>
       <c r="H2">
-        <v>0.7345796288110813</v>
+        <v>0.5262148846026498</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,25 +470,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3692058207333464</v>
+        <v>0.2574250228791162</v>
       </c>
       <c r="C3">
-        <v>0.9034355712847815</v>
+        <v>0.7219190435452869</v>
       </c>
       <c r="D3">
-        <v>-0.7035964948450193</v>
+        <v>-0.01954749883904051</v>
       </c>
       <c r="E3">
-        <v>0.9642893395531933</v>
+        <v>0.7594888313556046</v>
       </c>
       <c r="F3">
-        <v>0.9070438592246819</v>
+        <v>0.7560976056534053</v>
       </c>
       <c r="G3">
-        <v>0.5107924093037564</v>
+        <v>0.2353386769368915</v>
       </c>
       <c r="H3">
-        <v>0.7336762065814854</v>
+        <v>0.4053865191993712</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,25 +496,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5073478453872229</v>
+        <v>0.4512964848629556</v>
       </c>
       <c r="C4">
-        <v>0.7835640093018724</v>
+        <v>0.6818318000194701</v>
       </c>
       <c r="D4">
-        <v>-0.7247518454213173</v>
+        <v>0.2216707178813409</v>
       </c>
       <c r="E4">
-        <v>0.9208785447710529</v>
+        <v>0.8274763055083835</v>
       </c>
       <c r="F4">
-        <v>0.8082319503724491</v>
+        <v>0.7225479814855238</v>
       </c>
       <c r="G4">
-        <v>0.4102165561562223</v>
+        <v>0.2611672281670652</v>
       </c>
       <c r="H4">
-        <v>0.6304849460728998</v>
+        <v>0.4630569613656106</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,25 +522,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.03199510206901351</v>
+        <v>-0.2042733856676281</v>
       </c>
       <c r="C5">
-        <v>-0.7235090272264133</v>
+        <v>-0.7546354813998378</v>
       </c>
       <c r="D5">
-        <v>0.3131374985322416</v>
+        <v>-0.3870528095682125</v>
       </c>
       <c r="E5">
-        <v>-0.5147278052408756</v>
+        <v>-0.5884428096652645</v>
       </c>
       <c r="F5">
-        <v>-0.8063393909953487</v>
+        <v>-0.809227733624498</v>
       </c>
       <c r="G5">
-        <v>-0.741697998261618</v>
+        <v>-0.8260513492149973</v>
       </c>
       <c r="H5">
-        <v>-0.5651093584808934</v>
+        <v>-0.7812352767480449</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,25 +548,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01587020076017931</v>
+        <v>-0.176017987153906</v>
       </c>
       <c r="C6">
-        <v>-0.8291022901345024</v>
+        <v>-0.799783669516412</v>
       </c>
       <c r="D6">
-        <v>0.4955212300072449</v>
+        <v>-0.4199002850346485</v>
       </c>
       <c r="E6">
-        <v>-0.7297340168793576</v>
+        <v>-0.6855688042759477</v>
       </c>
       <c r="F6">
-        <v>-0.8642459720367893</v>
+        <v>-0.8451691833713433</v>
       </c>
       <c r="G6">
-        <v>-0.6375141395371977</v>
+        <v>-0.8394743912157355</v>
       </c>
       <c r="H6">
-        <v>-0.8484904205796724</v>
+        <v>-0.822660162992877</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,25 +574,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04767563387390716</v>
+        <v>-0.1448394859795318</v>
       </c>
       <c r="C7">
-        <v>-0.9024308406429434</v>
+        <v>-0.8703851407796003</v>
       </c>
       <c r="D7">
-        <v>0.4964513833781508</v>
+        <v>-0.4652022227945379</v>
       </c>
       <c r="E7">
-        <v>-0.7092381055936927</v>
+        <v>-0.6964180976843772</v>
       </c>
       <c r="F7">
-        <v>-0.943959273412234</v>
+        <v>-0.9015427017018518</v>
       </c>
       <c r="G7">
-        <v>-0.6037756687775888</v>
+        <v>-0.7929763420687861</v>
       </c>
       <c r="H7">
-        <v>-0.6498429397085985</v>
+        <v>-0.6846629453994351</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/macro_ewma_cor.xlsx
+++ b/correlation/data/macro_ewma_cor.xlsx
@@ -444,25 +444,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.280138199243315</v>
+        <v>0.2125004094588548</v>
       </c>
       <c r="C2">
-        <v>0.8810464487533755</v>
+        <v>0.838964535364776</v>
       </c>
       <c r="D2">
-        <v>0.177798723416985</v>
+        <v>-0.01541275628203873</v>
       </c>
       <c r="E2">
-        <v>0.8716900796640861</v>
+        <v>0.8147448156279298</v>
       </c>
       <c r="F2">
-        <v>0.8753926804779407</v>
+        <v>0.8131844468617042</v>
       </c>
       <c r="G2">
-        <v>0.4013505291380477</v>
+        <v>0.3379036639081046</v>
       </c>
       <c r="H2">
-        <v>0.5262148846026498</v>
+        <v>0.3365618129500736</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,25 +470,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2574250228791162</v>
+        <v>0.1977292800528732</v>
       </c>
       <c r="C3">
-        <v>0.7219190435452869</v>
+        <v>0.6522772381686132</v>
       </c>
       <c r="D3">
-        <v>-0.01954749883904051</v>
+        <v>-0.1974322554071038</v>
       </c>
       <c r="E3">
-        <v>0.7594888313556046</v>
+        <v>0.6997520836925545</v>
       </c>
       <c r="F3">
-        <v>0.7560976056534053</v>
+        <v>0.6328165076902125</v>
       </c>
       <c r="G3">
-        <v>0.2353386769368915</v>
+        <v>0.1571864195553791</v>
       </c>
       <c r="H3">
-        <v>0.4053865191993712</v>
+        <v>0.244839425764606</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,25 +496,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4512964848629556</v>
+        <v>0.415208223268032</v>
       </c>
       <c r="C4">
-        <v>0.6818318000194701</v>
+        <v>0.5969637917865657</v>
       </c>
       <c r="D4">
-        <v>0.2216707178813409</v>
+        <v>0.08135074730362654</v>
       </c>
       <c r="E4">
-        <v>0.8274763055083835</v>
+        <v>0.7872855347570946</v>
       </c>
       <c r="F4">
-        <v>0.7225479814855238</v>
+        <v>0.6755960339905388</v>
       </c>
       <c r="G4">
-        <v>0.2611672281670652</v>
+        <v>0.1840356595390662</v>
       </c>
       <c r="H4">
-        <v>0.4630569613656106</v>
+        <v>0.3057054926237692</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,25 +522,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.2042733856676281</v>
+        <v>-0.1810839136062642</v>
       </c>
       <c r="C5">
-        <v>-0.7546354813998378</v>
+        <v>-0.794268125939075</v>
       </c>
       <c r="D5">
-        <v>-0.3870528095682125</v>
+        <v>-0.3621384757967426</v>
       </c>
       <c r="E5">
-        <v>-0.5884428096652645</v>
+        <v>-0.630553822612877</v>
       </c>
       <c r="F5">
-        <v>-0.809227733624498</v>
+        <v>-0.7750493508430603</v>
       </c>
       <c r="G5">
-        <v>-0.8260513492149973</v>
+        <v>-0.8230594660743714</v>
       </c>
       <c r="H5">
-        <v>-0.7812352767480449</v>
+        <v>-0.8549362110695146</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,25 +548,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.176017987153906</v>
+        <v>-0.1277613249204455</v>
       </c>
       <c r="C6">
-        <v>-0.799783669516412</v>
+        <v>-0.7902497742522457</v>
       </c>
       <c r="D6">
-        <v>-0.4199002850346485</v>
+        <v>-0.3548416277647048</v>
       </c>
       <c r="E6">
-        <v>-0.6855688042759477</v>
+        <v>-0.6682462363392341</v>
       </c>
       <c r="F6">
-        <v>-0.8451691833713433</v>
+        <v>-0.7222417430741442</v>
       </c>
       <c r="G6">
-        <v>-0.8394743912157355</v>
+        <v>-0.8296452407402358</v>
       </c>
       <c r="H6">
-        <v>-0.822660162992877</v>
+        <v>-0.8273851420612268</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,25 +574,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1448394859795318</v>
+        <v>-0.1239072108837857</v>
       </c>
       <c r="C7">
-        <v>-0.8703851407796003</v>
+        <v>-0.9391822449041746</v>
       </c>
       <c r="D7">
-        <v>-0.4652022227945379</v>
+        <v>-0.4537790797014187</v>
       </c>
       <c r="E7">
-        <v>-0.6964180976843772</v>
+        <v>-0.7807905158966596</v>
       </c>
       <c r="F7">
-        <v>-0.9015427017018518</v>
+        <v>-0.8221554675231111</v>
       </c>
       <c r="G7">
-        <v>-0.7929763420687861</v>
+        <v>-0.7914541044823399</v>
       </c>
       <c r="H7">
-        <v>-0.6846629453994351</v>
+        <v>-0.7546242264337328</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/macro_ewma_cor.xlsx
+++ b/correlation/data/macro_ewma_cor.xlsx
@@ -444,22 +444,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.2125004094588548</v>
+        <v>0.2125004094588563</v>
       </c>
       <c r="C2">
-        <v>0.838964535364776</v>
+        <v>0.8389645353647764</v>
       </c>
       <c r="D2">
-        <v>-0.01541275628203873</v>
+        <v>-0.01541275628203741</v>
       </c>
       <c r="E2">
-        <v>0.8147448156279298</v>
+        <v>0.8147448156279303</v>
       </c>
       <c r="F2">
-        <v>0.8131844468617042</v>
+        <v>0.8131844468617049</v>
       </c>
       <c r="G2">
-        <v>0.3379036639081046</v>
+        <v>0.3379036639081054</v>
       </c>
       <c r="H2">
         <v>0.3365618129500736</v>
@@ -470,25 +470,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1977292800528732</v>
+        <v>0.1977292800528723</v>
       </c>
       <c r="C3">
-        <v>0.6522772381686132</v>
+        <v>0.6522772381686102</v>
       </c>
       <c r="D3">
-        <v>-0.1974322554071038</v>
+        <v>-0.1974322554071066</v>
       </c>
       <c r="E3">
-        <v>0.6997520836925545</v>
+        <v>0.6997520836925522</v>
       </c>
       <c r="F3">
-        <v>0.6328165076902125</v>
+        <v>0.6328165076902089</v>
       </c>
       <c r="G3">
-        <v>0.1571864195553791</v>
+        <v>0.157186419555376</v>
       </c>
       <c r="H3">
-        <v>0.244839425764606</v>
+        <v>0.2448394257646033</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,25 +496,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.415208223268032</v>
+        <v>0.415208223268031</v>
       </c>
       <c r="C4">
-        <v>0.5969637917865657</v>
+        <v>0.5969637917865637</v>
       </c>
       <c r="D4">
-        <v>0.08135074730362654</v>
+        <v>0.08135074730362506</v>
       </c>
       <c r="E4">
-        <v>0.7872855347570946</v>
+        <v>0.7872855347570927</v>
       </c>
       <c r="F4">
-        <v>0.6755960339905388</v>
+        <v>0.6755960339905375</v>
       </c>
       <c r="G4">
-        <v>0.1840356595390662</v>
+        <v>0.1840356595390638</v>
       </c>
       <c r="H4">
-        <v>0.3057054926237692</v>
+        <v>0.3057054926237667</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,25 +522,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.1810839136062642</v>
+        <v>-0.1810839136062651</v>
       </c>
       <c r="C5">
-        <v>-0.794268125939075</v>
+        <v>-0.7942681259390778</v>
       </c>
       <c r="D5">
-        <v>-0.3621384757967426</v>
+        <v>-0.362138475796737</v>
       </c>
       <c r="E5">
-        <v>-0.630553822612877</v>
+        <v>-0.6305538226128797</v>
       </c>
       <c r="F5">
-        <v>-0.7750493508430603</v>
+        <v>-0.7750493508430638</v>
       </c>
       <c r="G5">
-        <v>-0.8230594660743714</v>
+        <v>-0.8230594660743697</v>
       </c>
       <c r="H5">
-        <v>-0.8549362110695146</v>
+        <v>-0.8549362110695179</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,25 +548,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1277613249204455</v>
+        <v>-0.1277613249204414</v>
       </c>
       <c r="C6">
-        <v>-0.7902497742522457</v>
+        <v>-0.7902497742522465</v>
       </c>
       <c r="D6">
-        <v>-0.3548416277647048</v>
+        <v>-0.3548416277647021</v>
       </c>
       <c r="E6">
-        <v>-0.6682462363392341</v>
+        <v>-0.6682462363392346</v>
       </c>
       <c r="F6">
-        <v>-0.7222417430741442</v>
+        <v>-0.7222417430741465</v>
       </c>
       <c r="G6">
-        <v>-0.8296452407402358</v>
+        <v>-0.829645240740233</v>
       </c>
       <c r="H6">
-        <v>-0.8273851420612268</v>
+        <v>-0.8273851420612296</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,25 +574,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.1239072108837857</v>
+        <v>-0.1239072108837729</v>
       </c>
       <c r="C7">
-        <v>-0.9391822449041746</v>
+        <v>-0.9391822449041662</v>
       </c>
       <c r="D7">
-        <v>-0.4537790797014187</v>
+        <v>-0.4537790797014202</v>
       </c>
       <c r="E7">
-        <v>-0.7807905158966596</v>
+        <v>-0.7807905158966425</v>
       </c>
       <c r="F7">
-        <v>-0.8221554675231111</v>
+        <v>-0.8221554675230975</v>
       </c>
       <c r="G7">
-        <v>-0.7914541044823399</v>
+        <v>-0.791454104482338</v>
       </c>
       <c r="H7">
-        <v>-0.7546242264337328</v>
+        <v>-0.7546242264337287</v>
       </c>
     </row>
   </sheetData>
